--- a/input.xlsx
+++ b/input.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ar-planner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USER FILES\Documents\Python\ar-planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D9DF9A7-8357-4360-96F7-2BDE1C7627EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6D651765-E61C-4291-82F8-38214A4E87B5}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Leg</t>
   </si>
@@ -78,13 +77,25 @@
   </si>
   <si>
     <t>C, paddle, bike</t>
+  </si>
+  <si>
+    <t>start time</t>
+  </si>
+  <si>
+    <t>start date</t>
+  </si>
+  <si>
+    <t>start loc</t>
+  </si>
+  <si>
+    <t>Huonville, TAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,9 +124,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,243 +461,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA07601-9ECB-4060-ACF3-6EA57225B411}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45718</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="4" spans="1:6">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C4" s="1">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D4" s="1">
         <v>0.15625</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="5" spans="1:6">
+      <c r="A5">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.16319444444444445</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E3">
-        <v>1680</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.19791666666666666</v>
-      </c>
-      <c r="E4">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1">
+        <v>0.16319444444444445</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E5">
+        <v>1680</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="E6">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
         <v>7.8472222222222221E-2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D7" s="1">
         <v>0.15625</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>372</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="8" spans="1:6">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C8" s="1">
         <v>0.17291666666666666</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D8" s="1">
         <v>0.28125</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="9" spans="1:6">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C9" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D9" s="1">
         <v>0.90277777777777779</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>2100</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="10" spans="1:6">
+      <c r="A10">
         <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.17847222222222223</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.35694444444444445</v>
-      </c>
-      <c r="E8">
-        <v>1100</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.46319444444444446</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.77152777777777781</v>
-      </c>
-      <c r="E9">
-        <v>1000</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>0.47499999999999998</v>
+        <v>0.17847222222222223</v>
       </c>
       <c r="D10" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.35694444444444445</v>
       </c>
       <c r="E10">
-        <v>2170</v>
+        <v>1100</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>0.14861111111111111</v>
+        <v>0.46319444444444446</v>
       </c>
       <c r="D11" s="1">
-        <v>0.29791666666666666</v>
+        <v>0.77152777777777781</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E12">
+        <v>2170</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.29791666666666666</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
         <v>0.29444444444444445</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D14" s="1">
         <v>0.63124999999999998</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>1370</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F14" t="s">
         <v>13</v>
       </c>
     </row>
